--- a/planilhas/tuberculose vacinacao.xlsx
+++ b/planilhas/tuberculose vacinacao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive - Insper - Institudo de Ensino e Pesquisa\Documentos\INSPER\2° Semestre\Ciência dos Dados\Projeto 2\Projeto-Microdados\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3080AF-2FC9-44D8-AF30-A4A830655218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C070350D-7425-496D-A03D-4CBD22D11623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5567" uniqueCount="5567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5566" uniqueCount="5566">
   <si>
     <t>Município</t>
   </si>
@@ -16718,9 +16718,6 @@
   </si>
   <si>
     <t>530010 BRASILIA</t>
-  </si>
-  <si>
-    <t>Gerado em 21/11/2023 as 09:16:53</t>
   </si>
 </sst>
 </file>
@@ -17084,11 +17081,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5568"/>
+  <dimension ref="A1:B5565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -61616,11 +61611,6 @@
         <v>49799</v>
       </c>
     </row>
-    <row r="5568" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5568" t="s">
-        <v>5566</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
